--- a/biology/Biologie cellulaire et moléculaire/BAG3/BAG3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BAG3/BAG3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BAG3 (pour « BCL2-associated athanogene 3 ») est une protéine dont la mutation est responsable d'une forme de cardiomyopathie dilatée. Son gène, BAG3, est situé sur le chromosome 10 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé essentiellement dans le myocarde et le muscle squelettique. Il a un rôle de protéine chaperon, interagit avec le Bcl-2 et intervient, finalement, dans la régulation des myocytes[5]. Il agit sur les récepteurs adrénergiques de type bêta 1 ainsi que sur les canaux calciques de type L[6].
-Il interagit avec la protéine CAPZ permettant la stabilisation de la structure myofibrillaire durant la contraction musculaire[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé essentiellement dans le myocarde et le muscle squelettique. Il a un rôle de protéine chaperon, interagit avec le Bcl-2 et intervient, finalement, dans la régulation des myocytes. Il agit sur les récepteurs adrénergiques de type bêta 1 ainsi que sur les canaux calciques de type L.
+Il interagit avec la protéine CAPZ permettant la stabilisation de la structure myofibrillaire durant la contraction musculaire.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène est responsable de 2 à 4 % des cardiomyopathie dilatées familiales[8],[9]. Cette atteinte cardiaque survient vers 40 ans, plus grave chez l'homme[10].
-Une autre mutation est responsable d'une dystrophie musculaire grave chez l'enfant[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène est responsable de 2 à 4 % des cardiomyopathie dilatées familiales,. Cette atteinte cardiaque survient vers 40 ans, plus grave chez l'homme.
+Une autre mutation est responsable d'une dystrophie musculaire grave chez l'enfant.
 </t>
         </is>
       </c>
